--- a/analysis/baseline.xlsx
+++ b/analysis/baseline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Chart (Split)" sheetId="2" r:id="rId1"/>
@@ -429,6 +429,42 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Baseline (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>dCAMP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> Off)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -933,11 +969,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2091624216"/>
-        <c:axId val="2091529304"/>
+        <c:axId val="2104376920"/>
+        <c:axId val="2104380056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2091624216"/>
+        <c:axId val="2104376920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091529304"/>
+        <c:crossAx val="2104380056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -954,7 +990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091529304"/>
+        <c:axId val="2104380056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +1001,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091624216"/>
+        <c:crossAx val="2104376920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1040,6 +1076,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>25th Fibonacci</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'PHP Avg'!$A$2:$A$19</c:f>
@@ -1170,6 +1209,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>5MB Download</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'PHP Avg'!$A$2:$A$19</c:f>
@@ -1307,11 +1349,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2050150152"/>
-        <c:axId val="2050145304"/>
+        <c:axId val="2103788536"/>
+        <c:axId val="2103783048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2050150152"/>
+        <c:axId val="2103788536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2050145304"/>
+        <c:crossAx val="2103783048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1347,7 +1389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050145304"/>
+        <c:axId val="2103783048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2050150152"/>
+        <c:crossAx val="2103788536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1426,7 +1468,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -1437,7 +1479,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/analysis/baseline.xlsx
+++ b/analysis/baseline.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart (Split)" sheetId="2" r:id="rId1"/>
-    <sheet name="Chart (Avg)" sheetId="6" r:id="rId2"/>
+    <sheet name="Chart (avg)" sheetId="7" r:id="rId2"/>
     <sheet name="PHP Data 1" sheetId="1" r:id="rId3"/>
     <sheet name="PHP Data 2" sheetId="3" r:id="rId4"/>
     <sheet name="PHP Data 3" sheetId="4" r:id="rId5"/>
@@ -279,13 +279,13 @@
     <t>label</t>
   </si>
   <si>
-    <t>fib_avg</t>
+    <t>sample_count</t>
   </si>
   <si>
-    <t>random_avg</t>
+    <t>25th Fibonacci</t>
   </si>
   <si>
-    <t>sample_count</t>
+    <t>5MB Download</t>
   </si>
 </sst>
 </file>
@@ -969,11 +969,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2104376920"/>
-        <c:axId val="2104380056"/>
+        <c:axId val="2086344648"/>
+        <c:axId val="2087112808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2104376920"/>
+        <c:axId val="2086344648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104380056"/>
+        <c:crossAx val="2087112808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -990,7 +990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104380056"/>
+        <c:axId val="2087112808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1001,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104376920"/>
+        <c:crossAx val="2086344648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1032,41 +1032,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Baseline (</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" i="1"/>
-              <a:t>dCAMP</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" i="0"/>
-              <a:t> Off)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37687264021982"/>
-          <c:y val="0.0392553166827368"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1077,7 +1042,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>25th Fibonacci</c:v>
+            <c:strRef>
+              <c:f>'PHP Avg'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25th Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1210,7 +1183,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>5MB Download</c:v>
+            <c:strRef>
+              <c:f>'PHP Avg'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5MB Download</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -1349,11 +1330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2103788536"/>
-        <c:axId val="2103783048"/>
+        <c:axId val="2125369736"/>
+        <c:axId val="2065144248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2103788536"/>
+        <c:axId val="2125369736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103783048"/>
+        <c:crossAx val="2065144248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1389,35 +1370,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2103783048"/>
+        <c:axId val="2065144248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                  <a:alpha val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1441,7 +1400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103788536"/>
+        <c:crossAx val="2125369736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1468,7 +1427,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -1479,7 +1438,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -1517,7 +1476,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8572500" cy="5829300"/>
+    <xdr:ext cx="8572500" cy="5830455"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1646,14 +1605,14 @@
     <tableColumn id="1" name="thread_count" dataDxfId="2">
       <calculatedColumnFormula>MID(Table1[[#This Row],[sampler_label]], 1, FIND(":", Table1[[#This Row],[sampler_label]])-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="fib_avg" dataDxfId="1">
+    <tableColumn id="2" name="25th Fibonacci" dataDxfId="1">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[average]],Table2[[#This Row],[average]], Table3[[#This Row],[average]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="random_avg" dataDxfId="0">
+    <tableColumn id="3" name="5MB Download" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE('PHP Data 1'!E38,'PHP Data 2'!E38,'PHP Data 3'!E38)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1982,7 +1941,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2010,7 +1969,7 @@
         <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -4215,7 +4174,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4243,7 +4202,7 @@
         <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -6448,7 +6407,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6476,7 +6435,7 @@
         <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -8681,14 +8640,14 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8696,10 +8655,10 @@
         <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3">
